--- a/bin/Debug/net6.0-windows/ComprovantePagamento.xlsx
+++ b/bin/Debug/net6.0-windows/ComprovantePagamento.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Comprovante de Pagamento</t>
   </si>
@@ -20,31 +20,61 @@
     <t>Nome do Cliente:</t>
   </si>
   <si>
-    <t>Jonas</t>
+    <t>Fernanda</t>
   </si>
   <si>
     <t>Modelo do Carro:</t>
   </si>
   <si>
-    <t>Fusca</t>
+    <t>HB20</t>
   </si>
   <si>
     <t>Placa do Carro:</t>
   </si>
   <si>
-    <t>273-FOU</t>
+    <t>820-XXA</t>
   </si>
   <si>
     <t>Data da reserva:</t>
   </si>
   <si>
-    <t>2023/11/10 10</t>
+    <t>05/11/2023 12:11</t>
   </si>
   <si>
     <t>Código da reserva:</t>
   </si>
   <si>
-    <t>9129</t>
+    <t>8160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor: </t>
+  </si>
+  <si>
+    <t>R$ 88,00</t>
+  </si>
+  <si>
+    <t>Pagamento</t>
+  </si>
+  <si>
+    <t>Autorizado</t>
+  </si>
+  <si>
+    <t>Código da Transação:</t>
+  </si>
+  <si>
+    <t>75723917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartão final : </t>
+  </si>
+  <si>
+    <t>xxxx-xxxx-xxxx-8137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição: </t>
+  </si>
+  <si>
+    <t>Pagamento realizado com Sucesso!</t>
   </si>
 </sst>
 </file>
@@ -52,8 +82,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -78,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,16 +128,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.847402572631836" customWidth="1"/>
+    <col min="3" max="3" width="31.573501586914062" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -141,7 +185,50 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>